--- a/igem2017/sdin/tools/preload/additional/track.xlsx
+++ b/igem2017/sdin/tools/preload/additional/track.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有谁共鸣\Desktop\新建文件夹\track\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixia\LinuxHome\Projects\IGEM2017-SYSU.Software\igem2017\sdin\tools\preload\additional\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track的解释" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">track的网络分析!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">track额外分析!$A$20:$F$36</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="676">
   <si>
     <t>2017.igem.org/Competition/Tracks/Therapeutics</t>
   </si>
@@ -2092,13 +2092,21 @@
   </si>
   <si>
     <t>单独搜的时候推荐是这个track的project（按project_score排先后）和这些project的part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art &amp; Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9376,15 +9384,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38098</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>107022</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30478</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>122262</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2462213" cy="3380106"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9397,7 +9411,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628898" y="283235"/>
+          <a:off x="6682738" y="648042"/>
           <a:ext cx="2462213" cy="3380106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9422,7 +9436,13 @@
     <xdr:ext cx="6460505" cy="4305389"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9465,7 +9485,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9497,7 +9523,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9529,7 +9561,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9811,16 +9849,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -9834,9 +9875,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>674</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>46</v>
@@ -9844,8 +9885,11 @@
       <c r="C2" t="s">
         <v>45</v>
       </c>
+      <c r="D2" t="s">
+        <v>675</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -9856,7 +9900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -9867,7 +9911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -9878,7 +9922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -9889,7 +9933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -9900,7 +9944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -9911,7 +9955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -9922,7 +9966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -9933,7 +9977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -9944,7 +9988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -9955,7 +9999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -9966,7 +10010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -9977,7 +10021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -9988,7 +10032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -9999,7 +10043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -10019,19 +10063,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>435</v>
       </c>
@@ -10084,7 +10128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>431</v>
       </c>
@@ -10137,7 +10181,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>130</v>
@@ -10188,7 +10232,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>405</v>
@@ -10239,7 +10283,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>390</v>
@@ -10290,7 +10334,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>144</v>
@@ -10341,7 +10385,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>370</v>
@@ -10392,7 +10436,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>359</v>
@@ -10443,7 +10487,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>346</v>
@@ -10494,7 +10538,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>335</v>
@@ -10545,7 +10589,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>241</v>
@@ -10596,7 +10640,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>307</v>
@@ -10647,7 +10691,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>218</v>
@@ -10698,7 +10742,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>282</v>
@@ -10749,7 +10793,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>270</v>
@@ -10800,7 +10844,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>260</v>
@@ -10851,7 +10895,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>250</v>
@@ -10902,7 +10946,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>238</v>
@@ -10953,7 +10997,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>224</v>
@@ -11004,7 +11048,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>210</v>
@@ -11055,7 +11099,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" t="s">
         <v>197</v>
@@ -11106,7 +11150,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>185</v>
@@ -11157,7 +11201,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" t="s">
         <v>121</v>
@@ -11208,7 +11252,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" t="s">
         <v>156</v>
@@ -11259,7 +11303,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>141</v>
@@ -11310,7 +11354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>127</v>
@@ -11361,7 +11405,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" t="s">
         <v>112</v>
@@ -11412,7 +11456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" t="s">
         <v>97</v>
@@ -11463,7 +11507,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" t="s">
         <v>82</v>
@@ -11514,7 +11558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" t="s">
         <v>67</v>
@@ -11576,21 +11620,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF61"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.06640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>671</v>
       </c>
@@ -11619,7 +11663,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>664</v>
       </c>
@@ -11648,7 +11692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -11677,7 +11721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -11706,7 +11750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
@@ -11735,7 +11779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>662</v>
       </c>
@@ -11764,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -11793,7 +11837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -11822,7 +11866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -11851,7 +11895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>660</v>
       </c>
@@ -11880,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -11909,7 +11953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -11938,7 +11982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -11967,7 +12011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -11996,7 +12040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -12025,7 +12069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -12054,7 +12098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -12083,9 +12127,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>670</v>
       </c>
@@ -12106,7 +12150,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>664</v>
       </c>
@@ -12130,7 +12174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -12154,7 +12198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -12178,7 +12222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -12202,7 +12246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>662</v>
       </c>
@@ -12226,7 +12270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
@@ -12250,7 +12294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -12274,7 +12318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
@@ -12298,7 +12342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>660</v>
       </c>
@@ -12322,7 +12366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
@@ -12346,7 +12390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -12370,7 +12414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
@@ -12394,7 +12438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -12418,7 +12462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
@@ -12442,7 +12486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
@@ -12466,7 +12510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
@@ -12490,13 +12534,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>47</v>
       </c>
@@ -12594,7 +12638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -12692,7 +12736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>644</v>
       </c>
@@ -12790,7 +12834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>633</v>
       </c>
@@ -12888,7 +12932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>622</v>
       </c>
@@ -12986,7 +13030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>614</v>
       </c>
@@ -13084,7 +13128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>605</v>
       </c>
@@ -13182,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>593</v>
       </c>
@@ -13280,7 +13324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
@@ -13374,7 +13418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
@@ -13468,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
@@ -13558,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
@@ -13648,7 +13692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
@@ -13738,7 +13782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
@@ -13828,7 +13872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
@@ -13918,7 +13962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
@@ -14008,7 +14052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
@@ -14098,7 +14142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
@@ -14188,7 +14232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
@@ -14278,7 +14322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
@@ -14368,7 +14412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
@@ -14454,7 +14498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14464,21 +14508,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>673</v>
       </c>

--- a/igem2017/sdin/tools/preload/additional/track.xlsx
+++ b/igem2017/sdin/tools/preload/additional/track.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixia\LinuxHome\Projects\IGEM2017-SYSU.Software\igem2017\sdin\tools\preload\additional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有谁共鸣\Desktop\igem\数据\高级检索数据\track\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="track的解释" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">track的网络分析!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">track额外分析!$A$20:$F$36</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="690">
   <si>
     <t>2017.igem.org/Competition/Tracks/Therapeutics</t>
   </si>
@@ -2095,18 +2095,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Art &amp; Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Art &amp; Design.jpg</t>
+  </si>
+  <si>
+    <t>Diagnostics.jpg</t>
+  </si>
+  <si>
+    <t>Energy.jpg</t>
+  </si>
+  <si>
+    <t>Environment.jpg</t>
+  </si>
+  <si>
+    <t>Food &amp; Energy.jpg</t>
+  </si>
+  <si>
+    <t>Food and Nutrition.jpg</t>
+  </si>
+  <si>
+    <t>Foundational Advance.jpg</t>
+  </si>
+  <si>
+    <t>Hardware.jpg</t>
+  </si>
+  <si>
+    <t>Health &amp; Medicine.jpg</t>
+  </si>
+  <si>
+    <t>High School.jpg</t>
+  </si>
+  <si>
+    <t>Information Processing.jpg</t>
+  </si>
+  <si>
+    <t>Manufacturing.jpg</t>
+  </si>
+  <si>
+    <t>Measurement.jpg</t>
+  </si>
+  <si>
+    <t>New Application.jpg</t>
+  </si>
+  <si>
+    <t>Software.jpg</t>
+  </si>
+  <si>
+    <t>Therapeutics.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9384,21 +9424,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30478</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>122262</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159410</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2462213" cy="3380106"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9411,7 +9445,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6682738" y="648042"/>
+          <a:off x="5367336" y="864260"/>
           <a:ext cx="2462213" cy="3380106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9436,13 +9470,7 @@
     <xdr:ext cx="6460505" cy="4305389"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9485,13 +9513,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9523,13 +9545,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9561,13 +9577,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9849,19 +9859,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -9875,9 +9882,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>46</v>
@@ -9886,10 +9893,10 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -9899,8 +9906,11 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
+      <c r="D3" t="s">
+        <v>675</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -9910,8 +9920,11 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
+      <c r="D4" t="s">
+        <v>676</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -9921,8 +9934,11 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
+      <c r="D5" t="s">
+        <v>677</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -9932,8 +9948,11 @@
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D6" t="s">
+        <v>678</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -9943,8 +9962,11 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
+      <c r="D7" t="s">
+        <v>679</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -9954,8 +9976,11 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
+      <c r="D8" t="s">
+        <v>680</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -9965,8 +9990,11 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
+      <c r="D9" t="s">
+        <v>681</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -9976,8 +10004,11 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="D10" t="s">
+        <v>682</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -9987,8 +10018,11 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
+      <c r="D11" t="s">
+        <v>683</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -9998,8 +10032,11 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
+      <c r="D12" t="s">
+        <v>684</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -10009,8 +10046,11 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
+      <c r="D13" t="s">
+        <v>685</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -10020,8 +10060,11 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
+      <c r="D14" t="s">
+        <v>686</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -10031,8 +10074,11 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
+      <c r="D15" t="s">
+        <v>687</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -10042,8 +10088,11 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
+      <c r="D16" t="s">
+        <v>688</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -10052,6 +10101,9 @@
       </c>
       <c r="C17" t="s">
         <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -10063,19 +10115,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>435</v>
       </c>
@@ -10128,7 +10180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>431</v>
       </c>
@@ -10181,7 +10233,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>130</v>
@@ -10232,7 +10284,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>405</v>
@@ -10283,7 +10335,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>390</v>
@@ -10334,7 +10386,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>144</v>
@@ -10385,7 +10437,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>370</v>
@@ -10436,7 +10488,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>359</v>
@@ -10487,7 +10539,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>346</v>
@@ -10538,7 +10590,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>335</v>
@@ -10589,7 +10641,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>241</v>
@@ -10640,7 +10692,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>307</v>
@@ -10691,7 +10743,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>218</v>
@@ -10742,7 +10794,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>282</v>
@@ -10793,7 +10845,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>270</v>
@@ -10844,7 +10896,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>260</v>
@@ -10895,7 +10947,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>250</v>
@@ -10946,7 +10998,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>238</v>
@@ -10997,7 +11049,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>224</v>
@@ -11048,7 +11100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>210</v>
@@ -11099,7 +11151,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" t="s">
         <v>197</v>
@@ -11150,7 +11202,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>185</v>
@@ -11201,7 +11253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" t="s">
         <v>121</v>
@@ -11252,7 +11304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" t="s">
         <v>156</v>
@@ -11303,7 +11355,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>141</v>
@@ -11354,7 +11406,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>127</v>
@@ -11405,7 +11457,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" t="s">
         <v>112</v>
@@ -11456,7 +11508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" t="s">
         <v>97</v>
@@ -11507,7 +11559,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" t="s">
         <v>82</v>
@@ -11558,7 +11610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" t="s">
         <v>67</v>
@@ -11620,21 +11672,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF61"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>671</v>
       </c>
@@ -11663,7 +11715,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>664</v>
       </c>
@@ -11692,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -11721,7 +11773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -11750,7 +11802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
@@ -11779,7 +11831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>662</v>
       </c>
@@ -11808,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
@@ -11837,7 +11889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -11866,7 +11918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -11895,7 +11947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>660</v>
       </c>
@@ -11924,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -11953,7 +12005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -11982,7 +12034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -12011,7 +12063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -12040,7 +12092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -12069,7 +12121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -12098,7 +12150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -12127,9 +12179,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>670</v>
       </c>
@@ -12150,7 +12202,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>664</v>
       </c>
@@ -12174,7 +12226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -12198,7 +12250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -12222,7 +12274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -12246,7 +12298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>662</v>
       </c>
@@ -12270,7 +12322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
@@ -12294,7 +12346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -12318,7 +12370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
@@ -12342,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>660</v>
       </c>
@@ -12366,7 +12418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
@@ -12390,7 +12442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -12414,7 +12466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
@@ -12438,7 +12490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -12462,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
@@ -12486,7 +12538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
@@ -12510,7 +12562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
@@ -12534,13 +12586,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>47</v>
       </c>
@@ -12638,7 +12690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -12736,7 +12788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>644</v>
       </c>
@@ -12834,7 +12886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>633</v>
       </c>
@@ -12932,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>622</v>
       </c>
@@ -13030,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>614</v>
       </c>
@@ -13128,7 +13180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>605</v>
       </c>
@@ -13226,7 +13278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>593</v>
       </c>
@@ -13324,7 +13376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A48" s="7"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
@@ -13418,7 +13470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
@@ -13512,7 +13564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
@@ -13602,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
@@ -13692,7 +13744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
@@ -13782,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
@@ -13872,7 +13924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
@@ -13962,7 +14014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
@@ -14052,7 +14104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
@@ -14142,7 +14194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
@@ -14232,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
@@ -14322,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
@@ -14412,7 +14464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
@@ -14498,7 +14550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:32" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14508,21 +14560,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>673</v>
       </c>
